--- a/4 Sampling and Confidence Intervals/Homework/JulyConfidenceHW.xlsx
+++ b/4 Sampling and Confidence Intervals/Homework/JulyConfidenceHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\4 Sampling and Confidence Intervals\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>2. A sample of 100 American males gives an average weight of 170 pounds and a standard deviation of 30 pounds. You are 95% sure the average weight of an American male is between ____  and _____,</t>
   </si>
@@ -36,12 +36,63 @@
   </si>
   <si>
     <t>HW 4_4</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>xbar = sample mean =</t>
+  </si>
+  <si>
+    <t>std = sigma = s =</t>
+  </si>
+  <si>
+    <t>Upper limit =</t>
+  </si>
+  <si>
+    <t>Lower limit =</t>
+  </si>
+  <si>
+    <t>95% confidence interval</t>
+  </si>
+  <si>
+    <t>z score for a 97,5%tile</t>
+  </si>
+  <si>
+    <t>z score for a 2,5%tile</t>
+  </si>
+  <si>
+    <t>lower limit of a 0.95 confidence interval = z.025 = 2,5%tile</t>
+  </si>
+  <si>
+    <t>upper limit of a 0.95 confidence interval = z.975 = 97,5%tile</t>
+  </si>
+  <si>
+    <t>upper limit = z.975 = 97.5 percentile</t>
+  </si>
+  <si>
+    <t>lower limit = z.0.25 = 2.5 percentile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phat = </t>
+  </si>
+  <si>
+    <t>std error phat =</t>
+  </si>
+  <si>
+    <t>lower limit =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper limit = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,12 +120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -103,7 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,125 +427,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-1.96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>C9+C12*C8/SQRT(C10)</f>
+        <v>5196</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C14)</f>
+        <v>=C9+C12*C8/SQRT(C10)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f>C9+C11*C8/SQRT(C10)</f>
+        <v>4804</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C15)</f>
+        <v>=C9+C11*C8/SQRT(C10)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f>C18+1.96*C19/SQRT(C17)</f>
+        <v>175.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f>C18-1.96*C19/SQRT(C17)</f>
+        <v>164.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <f>80/100</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <f>SQRT((C26)*(1-C26)/C25)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <f>C26-1.96*C27</f>
+        <v>0.72160000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <f>C26+1.96*C27</f>
+        <v>0.87840000000000007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
